--- a/game12/web.xlsx
+++ b/game12/web.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="13680" windowHeight="6315"/>
+    <workbookView windowWidth="13200" windowHeight="5145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="7" r:id="rId1"/>
@@ -45,10 +45,10 @@
     <t>json</t>
   </si>
   <si>
-    <t>play.iqqgame.top</t>
-  </si>
-  <si>
-    <t>#4caf50</t>
+    <t>play.vib-zuz.fun</t>
+  </si>
+  <si>
+    <t>#957aa9</t>
   </si>
   <si>
     <t>paly.sorrel.cloud</t>
@@ -115,7 +115,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -176,7 +176,14 @@
     <font>
       <u/>
       <sz val="10"/>
-      <color rgb="FF2972F4"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -434,7 +441,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF4CAF50"/>
+        <fgColor rgb="FF957AA9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,148 +756,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -947,11 +954,11 @@
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -963,7 +970,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1352,7 +1359,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="6"/>
@@ -1447,7 +1454,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="play.iqqgame.top" tooltip="http://iqqgame.top"/>
+    <hyperlink ref="A2" r:id="rId1" display="play.vib-zuz.fun"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
